--- a/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CE684AE-22A0-48F6-98FD-F5209361544F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFBE382C-5D80-4659-936E-1BA96267FD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C4C09FF9-22A7-427F-8B80-BD3FE4E51A58}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57ABD511-E013-49FB-B169-6125DA040235}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="325">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2015 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>15,25%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>18,44%</t>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>84,75%</t>
   </si>
   <si>
-    <t>79,69%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
   </si>
   <si>
     <t>85,82%</t>
   </si>
   <si>
-    <t>81,56%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>82,12%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,49 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>86,55%</t>
   </si>
   <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
   </si>
   <si>
     <t>92,31%</t>
   </si>
   <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -195,55 +189,55 @@
     <t>19,22%</t>
   </si>
   <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -252,784 +246,772 @@
     <t>12,6%</t>
   </si>
   <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
   </si>
   <si>
     <t>5,73%</t>
   </si>
   <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
   </si>
   <si>
     <t>9,1%</t>
   </si>
   <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>88,4%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>89,36%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
     <t>7,12%</t>
   </si>
   <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
   </si>
   <si>
     <t>92,88%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>86,12%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
     <t>96,18%</t>
   </si>
   <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE01C687-62FA-452A-B3F8-2CC72AD17ADE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4148C5C-9856-401D-8188-A5FC7C49E3EF}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1750,13 +1732,13 @@
         <v>107695</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,13 +1753,13 @@
         <v>434978</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>443</v>
@@ -1786,13 +1768,13 @@
         <v>481640</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -1801,13 +1783,13 @@
         <v>916617</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,7 +1845,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1875,13 +1857,13 @@
         <v>60666</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -1890,13 +1872,13 @@
         <v>33953</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -1905,13 +1887,13 @@
         <v>94619</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1926,13 +1908,13 @@
         <v>254973</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -1941,13 +1923,13 @@
         <v>302356</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>564</v>
@@ -1956,13 +1938,13 @@
         <v>557329</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,7 +2000,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2030,13 +2012,13 @@
         <v>46496</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2045,13 +2027,13 @@
         <v>21935</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2060,13 +2042,13 @@
         <v>68431</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2081,13 +2063,13 @@
         <v>322570</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -2096,13 +2078,13 @@
         <v>360946</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>643</v>
@@ -2111,13 +2093,13 @@
         <v>683516</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2173,7 +2155,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2185,13 +2167,13 @@
         <v>19922</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2200,13 +2182,13 @@
         <v>10418</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2215,13 +2197,13 @@
         <v>30340</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2236,13 +2218,13 @@
         <v>190233</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -2251,13 +2233,13 @@
         <v>207260</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -2266,13 +2248,13 @@
         <v>397493</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2328,7 +2310,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2340,13 +2322,13 @@
         <v>16449</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2355,13 +2337,13 @@
         <v>9060</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2370,13 +2352,13 @@
         <v>25509</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2391,13 +2373,13 @@
         <v>246674</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -2406,13 +2388,13 @@
         <v>264055</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>496</v>
@@ -2421,13 +2403,13 @@
         <v>510729</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2483,7 +2465,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2495,13 +2477,13 @@
         <v>54704</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -2510,13 +2492,13 @@
         <v>34864</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -2525,13 +2507,13 @@
         <v>89567</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2546,13 +2528,13 @@
         <v>588771</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -2561,13 +2543,13 @@
         <v>645397</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="M23" s="7">
         <v>1123</v>
@@ -2576,13 +2558,13 @@
         <v>1234169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2638,7 +2620,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2650,13 +2632,13 @@
         <v>108539</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>148</v>
+        <v>34</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -2665,13 +2647,13 @@
         <v>85024</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -2680,13 +2662,13 @@
         <v>193563</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2701,13 +2683,13 @@
         <v>669018</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -2716,13 +2698,13 @@
         <v>735437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="M26" s="7">
         <v>1314</v>
@@ -2731,13 +2713,13 @@
         <v>1404455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2805,13 +2787,13 @@
         <v>418936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>273</v>
@@ -2820,13 +2802,13 @@
         <v>276303</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>678</v>
@@ -2835,13 +2817,13 @@
         <v>695239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,16 +2835,16 @@
         <v>2808</v>
       </c>
       <c r="D29" s="7">
-        <v>2954830</v>
+        <v>2954829</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>86</v>
+        <v>169</v>
       </c>
       <c r="H29" s="7">
         <v>3046</v>
@@ -2871,13 +2853,13 @@
         <v>3244843</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="M29" s="7">
         <v>5854</v>
@@ -2886,13 +2868,13 @@
         <v>6199672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,7 +2886,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3373766</v>
+        <v>3373765</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2948,7 +2930,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2972,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AE3DA39-4CD4-422E-A245-2415FDBB0C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E573DD-6366-4C20-8F86-A732D06A2233}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2989,7 +2971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3096,13 +3078,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3111,13 +3093,13 @@
         <v>1326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3126,13 +3108,13 @@
         <v>1326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3147,10 +3129,10 @@
         <v>260298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3162,13 +3144,13 @@
         <v>270077</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>868</v>
@@ -3177,13 +3159,13 @@
         <v>530374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3251,13 +3233,13 @@
         <v>19391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3266,13 +3248,13 @@
         <v>13222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>200</v>
+        <v>107</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3281,13 +3263,13 @@
         <v>32613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3302,13 +3284,13 @@
         <v>499906</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H8" s="7">
         <v>700</v>
@@ -3317,13 +3299,13 @@
         <v>539848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>208</v>
+        <v>117</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -3332,13 +3314,13 @@
         <v>1039755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,7 +3376,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3406,13 +3388,13 @@
         <v>13528</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3421,13 +3403,13 @@
         <v>14595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3436,13 +3418,13 @@
         <v>28123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3457,13 +3439,13 @@
         <v>304399</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3472,13 +3454,13 @@
         <v>352278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>854</v>
@@ -3487,13 +3469,13 @@
         <v>656677</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,7 +3531,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3561,13 +3543,13 @@
         <v>16133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3576,13 +3558,13 @@
         <v>6188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3591,13 +3573,13 @@
         <v>22321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3612,13 +3594,13 @@
         <v>306107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -3627,13 +3609,13 @@
         <v>422368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="M14" s="7">
         <v>870</v>
@@ -3642,13 +3624,13 @@
         <v>728475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,7 +3686,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3716,13 +3698,13 @@
         <v>3236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3731,13 +3713,13 @@
         <v>2056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3746,13 +3728,13 @@
         <v>5291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3767,13 +3749,13 @@
         <v>193512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>486</v>
@@ -3782,13 +3764,13 @@
         <v>228985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -3797,13 +3779,13 @@
         <v>422497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,7 +3841,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3871,13 +3853,13 @@
         <v>9681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3886,13 +3868,13 @@
         <v>1618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3901,13 +3883,13 @@
         <v>11299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3922,13 +3904,13 @@
         <v>267542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>172</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H20" s="7">
         <v>459</v>
@@ -3937,13 +3919,13 @@
         <v>274004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
         <v>821</v>
@@ -3952,13 +3934,13 @@
         <v>541546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,7 +3996,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4026,13 +4008,13 @@
         <v>63319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -4041,13 +4023,13 @@
         <v>32451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4056,13 +4038,13 @@
         <v>95770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4077,13 +4059,13 @@
         <v>564435</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="H23" s="7">
         <v>920</v>
@@ -4092,13 +4074,13 @@
         <v>770207</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="M23" s="7">
         <v>1470</v>
@@ -4107,13 +4089,13 @@
         <v>1334642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,7 +4151,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4181,13 +4163,13 @@
         <v>177593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -4196,13 +4178,13 @@
         <v>73742</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -4211,13 +4193,13 @@
         <v>251335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4232,13 +4214,13 @@
         <v>681835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="H26" s="7">
         <v>989</v>
@@ -4247,13 +4229,13 @@
         <v>794692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>303</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="M26" s="7">
         <v>1652</v>
@@ -4262,13 +4244,13 @@
         <v>1476527</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4336,13 +4318,13 @@
         <v>302882</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -4351,13 +4333,13 @@
         <v>145198</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="M28" s="7">
         <v>355</v>
@@ -4366,13 +4348,13 @@
         <v>448080</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>319</v>
+        <v>212</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,13 +4369,13 @@
         <v>3078032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="H29" s="7">
         <v>5192</v>
@@ -4402,28 +4384,28 @@
         <v>3652459</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="M29" s="7">
         <v>8366</v>
       </c>
       <c r="N29" s="7">
-        <v>6730492</v>
+        <v>6730491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>328</v>
+        <v>220</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4465,7 +4447,7 @@
         <v>8721</v>
       </c>
       <c r="N30" s="7">
-        <v>7178572</v>
+        <v>7178571</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4479,7 +4461,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AFBE382C-5D80-4659-936E-1BA96267FD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{696C4065-D4B4-4145-9974-05032FEE5BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{57ABD511-E013-49FB-B169-6125DA040235}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F51AD837-9044-460E-8BA3-82FEC8D9EF40}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
     <sheet name="2023" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="325">
   <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2015 (Tasa respuesta: 99,44%)</t>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -75,112 +75,118 @@
     <t>15,25%</t>
   </si>
   <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>85,28%</t>
+  </si>
+  <si>
+    <t>82,21%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
   </si>
   <si>
     <t>89,49%</t>
   </si>
   <si>
-    <t>85,28%</t>
-  </si>
-  <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>87,44%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
   </si>
   <si>
     <t>Cordoba</t>
@@ -189,55 +195,55 @@
     <t>19,22%</t>
   </si>
   <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
   </si>
   <si>
     <t>10,1%</t>
   </si>
   <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
   </si>
   <si>
     <t>14,51%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
   </si>
   <si>
     <t>80,78%</t>
   </si>
   <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
   </si>
   <si>
     <t>89,9%</t>
   </si>
   <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
   </si>
   <si>
     <t>85,49%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
   </si>
   <si>
     <t>Granada</t>
@@ -246,600 +252,606 @@
     <t>12,6%</t>
   </si>
   <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
     <t>9,29%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>90,71%</t>
   </si>
   <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,25%</t>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,49%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,17%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>13,9%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>88,4%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>86,1%</t>
-  </si>
-  <si>
-    <t>89,36%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,22%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
   </si>
   <si>
     <t>6,94%</t>
   </si>
   <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>93,06%</t>
   </si>
   <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
     <t>98,32%</t>
   </si>
   <si>
@@ -861,9 +873,6 @@
     <t>10,09%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
     <t>13,44%</t>
   </si>
   <si>
@@ -891,9 +900,6 @@
     <t>86,56%</t>
   </si>
   <si>
-    <t>92,64%</t>
-  </si>
-  <si>
     <t>95,96%</t>
   </si>
   <si>
@@ -927,9 +933,6 @@
     <t>6,62%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
     <t>14,55%</t>
   </si>
   <si>
@@ -949,9 +952,6 @@
   </si>
   <si>
     <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
   </si>
   <si>
     <t>93,38%</t>
@@ -1423,7 +1423,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4148C5C-9856-401D-8188-A5FC7C49E3EF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B65CB6-14F2-44FB-98E8-77C4172F68CD}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1732,13 +1732,13 @@
         <v>107695</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1753,13 +1753,13 @@
         <v>434978</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>443</v>
@@ -1768,13 +1768,13 @@
         <v>481640</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>851</v>
@@ -1783,13 +1783,13 @@
         <v>916617</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1845,7 +1845,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1857,13 +1857,13 @@
         <v>60666</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>36</v>
@@ -1872,13 +1872,13 @@
         <v>33953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>100</v>
@@ -1887,13 +1887,13 @@
         <v>94619</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1908,13 +1908,13 @@
         <v>254973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>296</v>
@@ -1923,13 +1923,13 @@
         <v>302356</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>564</v>
@@ -1938,13 +1938,13 @@
         <v>557329</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2000,7 +2000,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2012,13 +2012,13 @@
         <v>46496</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -2027,13 +2027,13 @@
         <v>21935</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2042,13 +2042,13 @@
         <v>68431</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2063,13 @@
         <v>322570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -2078,13 +2078,13 @@
         <v>360946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>643</v>
@@ -2093,10 +2093,10 @@
         <v>683516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>85</v>
@@ -2513,7 +2513,7 @@
         <v>132</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2528,13 @@
         <v>588771</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -2543,13 +2543,13 @@
         <v>645397</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M23" s="7">
         <v>1123</v>
@@ -2558,13 +2558,13 @@
         <v>1234169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2620,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2632,13 +2632,13 @@
         <v>108539</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -2647,13 +2647,13 @@
         <v>85024</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -2662,13 +2662,13 @@
         <v>193563</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,16 +2680,16 @@
         <v>645</v>
       </c>
       <c r="D26" s="7">
-        <v>669018</v>
+        <v>669019</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>41</v>
+        <v>154</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -2698,13 +2698,13 @@
         <v>735437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="M26" s="7">
         <v>1314</v>
@@ -2713,13 +2713,13 @@
         <v>1404455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2731,7 @@
         <v>749</v>
       </c>
       <c r="D27" s="7">
-        <v>777557</v>
+        <v>777558</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2787,13 +2787,13 @@
         <v>418936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>273</v>
@@ -2802,13 +2802,13 @@
         <v>276303</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
         <v>678</v>
@@ -2817,13 +2817,13 @@
         <v>695239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2835,16 +2835,16 @@
         <v>2808</v>
       </c>
       <c r="D29" s="7">
-        <v>2954829</v>
+        <v>2954830</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>169</v>
+        <v>23</v>
       </c>
       <c r="H29" s="7">
         <v>3046</v>
@@ -2853,13 +2853,13 @@
         <v>3244843</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M29" s="7">
         <v>5854</v>
@@ -2868,13 +2868,13 @@
         <v>6199672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,7 +2886,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3373765</v>
+        <v>3373766</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2930,7 +2930,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +2954,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E573DD-6366-4C20-8F86-A732D06A2233}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A517796-48B9-4077-B5BE-9353CA64B050}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,7 +2971,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3078,13 +3078,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3093,13 +3093,13 @@
         <v>1326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3108,13 +3108,13 @@
         <v>1326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,10 +3129,10 @@
         <v>260298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3144,13 +3144,13 @@
         <v>270077</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>868</v>
@@ -3159,13 +3159,13 @@
         <v>530374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3233,13 @@
         <v>19391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>193</v>
+        <v>114</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3248,13 +3248,13 @@
         <v>13222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3263,13 +3263,13 @@
         <v>32613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3284,13 @@
         <v>499906</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>200</v>
+        <v>122</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H8" s="7">
         <v>700</v>
@@ -3299,13 +3299,13 @@
         <v>539848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>117</v>
+        <v>204</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -3314,13 +3314,13 @@
         <v>1039755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3376,7 +3376,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3388,13 +3388,13 @@
         <v>13528</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3403,13 +3403,13 @@
         <v>14595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3418,13 +3418,13 @@
         <v>28123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3439,13 @@
         <v>304399</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3454,13 +3454,13 @@
         <v>352278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="M11" s="7">
         <v>854</v>
@@ -3469,13 +3469,13 @@
         <v>656677</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,7 +3531,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3543,13 +3543,13 @@
         <v>16133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3558,13 +3558,13 @@
         <v>6188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3573,13 +3573,13 @@
         <v>22321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3594,13 @@
         <v>306107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -3609,13 +3609,13 @@
         <v>422368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M14" s="7">
         <v>870</v>
@@ -3624,13 +3624,13 @@
         <v>728475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,13 +3698,13 @@
         <v>3236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3713,13 +3713,13 @@
         <v>2056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3728,13 +3728,13 @@
         <v>5291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3749,13 @@
         <v>193512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>486</v>
@@ -3764,13 +3764,13 @@
         <v>228985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -3779,13 +3779,13 @@
         <v>422497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3853,13 @@
         <v>9681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>162</v>
+        <v>263</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3868,13 +3868,13 @@
         <v>1618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3883,13 +3883,13 @@
         <v>11299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3904,13 @@
         <v>267542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>172</v>
+        <v>270</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="H20" s="7">
         <v>459</v>
@@ -3919,13 +3919,13 @@
         <v>274004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M20" s="7">
         <v>821</v>
@@ -3934,13 +3934,13 @@
         <v>541546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +4008,13 @@
         <v>63319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>274</v>
+        <v>55</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -4023,13 +4023,13 @@
         <v>32451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4038,13 +4038,13 @@
         <v>95770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4059,13 @@
         <v>564435</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>284</v>
+        <v>65</v>
       </c>
       <c r="H23" s="7">
         <v>920</v>
@@ -4074,13 +4074,13 @@
         <v>770207</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M23" s="7">
         <v>1470</v>
@@ -4089,13 +4089,13 @@
         <v>1334642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4151,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4163,13 +4163,13 @@
         <v>177593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -4178,13 +4178,13 @@
         <v>73742</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>169</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -4193,13 +4193,13 @@
         <v>251335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4214,13 @@
         <v>681835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H26" s="7">
         <v>989</v>
@@ -4229,10 +4229,10 @@
         <v>794692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>304</v>
+        <v>176</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>305</v>
@@ -4348,7 +4348,7 @@
         <v>448080</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>315</v>
@@ -4399,7 +4399,7 @@
         <v>6730491</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>323</v>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{696C4065-D4B4-4145-9974-05032FEE5BEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{603C3E7B-019B-4136-93E0-1DFF770CFF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F51AD837-9044-460E-8BA3-82FEC8D9EF40}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09E8FEB6-B037-4729-BA27-73181C9C8AC9}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="331">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -75,28 +75,28 @@
     <t>15,25%</t>
   </si>
   <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
   </si>
   <si>
     <t>14,18%</t>
   </si>
   <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>18,44%</t>
   </si>
   <si>
     <t>14,72%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>84,75%</t>
   </si>
   <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
+    <t>79,69%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
   </si>
   <si>
     <t>85,82%</t>
   </si>
   <si>
-    <t>81,41%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
+    <t>81,56%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
   </si>
   <si>
     <t>85,28%</t>
   </si>
   <si>
-    <t>82,21%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,880 +138,898 @@
     <t>13,45%</t>
   </si>
   <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
   </si>
   <si>
     <t>7,69%</t>
   </si>
   <si>
-    <t>5,54%</t>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>80,78%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,39%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>86,12%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
   </si>
   <si>
     <t>10,24%</t>
   </si>
   <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
   </si>
   <si>
     <t>89,76%</t>
   </si>
   <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>80,78%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>89,13%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,42%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>87,58%</t>
-  </si>
-  <si>
-    <t>86,49%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,64%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que consume comida rápida al menos 3 veces por semana en 2023 (Tasa respuesta: 99,75%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,17%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
   </si>
   <si>
     <t>6,24%</t>
   </si>
   <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
+  </si>
+  <si>
+    <t>85,02%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
   </si>
   <si>
     <t>93,76%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,22%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,8%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,98%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>94,07%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
 </sst>
 </file>
@@ -1423,7 +1441,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27B65CB6-14F2-44FB-98E8-77C4172F68CD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D9BEF0-71B2-4B5D-97AE-AE2B829F153F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2048,7 +2066,7 @@
         <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2063,13 +2081,13 @@
         <v>322570</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>334</v>
@@ -2078,13 +2096,13 @@
         <v>360946</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>643</v>
@@ -2093,13 +2111,13 @@
         <v>683516</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2155,7 +2173,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2167,13 +2185,13 @@
         <v>19922</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2182,13 +2200,13 @@
         <v>10418</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>31</v>
@@ -2197,13 +2215,13 @@
         <v>30340</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2218,13 +2236,13 @@
         <v>190233</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>211</v>
@@ -2233,13 +2251,13 @@
         <v>207260</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>402</v>
@@ -2248,13 +2266,13 @@
         <v>397493</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2310,7 +2328,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2322,13 +2340,13 @@
         <v>16449</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H19" s="7">
         <v>9</v>
@@ -2337,13 +2355,13 @@
         <v>9060</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>26</v>
@@ -2352,13 +2370,13 @@
         <v>25509</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2373,13 +2391,13 @@
         <v>246674</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>254</v>
@@ -2388,13 +2406,13 @@
         <v>264055</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>496</v>
@@ -2403,13 +2421,13 @@
         <v>510729</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2465,7 +2483,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2477,13 +2495,13 @@
         <v>54704</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H22" s="7">
         <v>34</v>
@@ -2492,13 +2510,13 @@
         <v>34864</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M22" s="7">
         <v>83</v>
@@ -2507,13 +2525,13 @@
         <v>89567</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2528,13 +2546,13 @@
         <v>588771</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H23" s="7">
         <v>603</v>
@@ -2543,13 +2561,13 @@
         <v>645397</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M23" s="7">
         <v>1123</v>
@@ -2558,13 +2576,13 @@
         <v>1234169</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2620,7 +2638,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2632,13 +2650,13 @@
         <v>108539</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="H25" s="7">
         <v>81</v>
@@ -2647,13 +2665,13 @@
         <v>85024</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M25" s="7">
         <v>185</v>
@@ -2662,13 +2680,13 @@
         <v>193563</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,16 +2698,16 @@
         <v>645</v>
       </c>
       <c r="D26" s="7">
-        <v>669019</v>
+        <v>669018</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="H26" s="7">
         <v>669</v>
@@ -2698,13 +2716,13 @@
         <v>735437</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M26" s="7">
         <v>1314</v>
@@ -2713,13 +2731,13 @@
         <v>1404455</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,7 +2749,7 @@
         <v>749</v>
       </c>
       <c r="D27" s="7">
-        <v>777558</v>
+        <v>777557</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -2787,13 +2805,13 @@
         <v>418936</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H28" s="7">
         <v>273</v>
@@ -2802,13 +2820,13 @@
         <v>276303</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M28" s="7">
         <v>678</v>
@@ -2817,13 +2835,13 @@
         <v>695239</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,13 +2856,13 @@
         <v>2954830</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="H29" s="7">
         <v>3046</v>
@@ -2853,13 +2871,13 @@
         <v>3244843</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M29" s="7">
         <v>5854</v>
@@ -2868,13 +2886,13 @@
         <v>6199672</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,7 +2948,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2954,7 +2972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A517796-48B9-4077-B5BE-9353CA64B050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74024FD0-1256-49A8-A968-1DEA7DCBDE6D}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2971,7 +2989,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3078,13 +3096,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -3093,13 +3111,13 @@
         <v>1326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -3108,13 +3126,13 @@
         <v>1326</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3129,10 +3147,10 @@
         <v>260298</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>30</v>
@@ -3144,13 +3162,13 @@
         <v>270077</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M5" s="7">
         <v>868</v>
@@ -3159,13 +3177,13 @@
         <v>530374</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3251,13 @@
         <v>19391</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>114</v>
+        <v>197</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3248,13 +3266,13 @@
         <v>13222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M7" s="7">
         <v>26</v>
@@ -3263,13 +3281,13 @@
         <v>32613</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3302,13 @@
         <v>499906</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H8" s="7">
         <v>700</v>
@@ -3299,13 +3317,13 @@
         <v>539848</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="M8" s="7">
         <v>1071</v>
@@ -3314,13 +3332,13 @@
         <v>1039755</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3388,13 +3406,13 @@
         <v>13528</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3403,13 +3421,13 @@
         <v>14595</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="M10" s="7">
         <v>29</v>
@@ -3418,13 +3436,13 @@
         <v>28123</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3439,13 +3457,13 @@
         <v>304399</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H11" s="7">
         <v>511</v>
@@ -3454,13 +3472,13 @@
         <v>352278</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M11" s="7">
         <v>854</v>
@@ -3469,13 +3487,13 @@
         <v>656677</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3543,13 +3561,13 @@
         <v>16133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H13" s="7">
         <v>9</v>
@@ -3558,13 +3576,13 @@
         <v>6188</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M13" s="7">
         <v>21</v>
@@ -3573,13 +3591,13 @@
         <v>22321</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3594,13 +3612,13 @@
         <v>306107</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
         <v>590</v>
@@ -3609,13 +3627,13 @@
         <v>422368</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>870</v>
@@ -3624,13 +3642,13 @@
         <v>728475</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3686,7 +3704,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3698,13 +3716,13 @@
         <v>3236</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
@@ -3713,13 +3731,13 @@
         <v>2056</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
@@ -3728,13 +3746,13 @@
         <v>5291</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3749,13 +3767,13 @@
         <v>193512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>486</v>
@@ -3764,13 +3782,13 @@
         <v>228985</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
@@ -3779,13 +3797,13 @@
         <v>422497</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3841,7 +3859,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3853,13 +3871,13 @@
         <v>9681</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -3868,13 +3886,13 @@
         <v>1618</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
@@ -3883,13 +3901,13 @@
         <v>11299</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3922,13 @@
         <v>267542</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>459</v>
@@ -3919,13 +3937,13 @@
         <v>274004</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M20" s="7">
         <v>821</v>
@@ -3934,13 +3952,13 @@
         <v>541546</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,7 +4014,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4008,13 +4026,13 @@
         <v>63319</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>55</v>
+        <v>280</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
@@ -4023,13 +4041,13 @@
         <v>32451</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
@@ -4038,13 +4056,13 @@
         <v>95770</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4077,13 @@
         <v>564435</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>65</v>
+        <v>290</v>
       </c>
       <c r="H23" s="7">
         <v>920</v>
@@ -4074,13 +4092,13 @@
         <v>770207</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="M23" s="7">
         <v>1470</v>
@@ -4089,13 +4107,13 @@
         <v>1334642</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4151,7 +4169,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4163,13 +4181,13 @@
         <v>177593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
@@ -4178,13 +4196,13 @@
         <v>73742</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>296</v>
+        <v>135</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>169</v>
+        <v>301</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
@@ -4193,13 +4211,13 @@
         <v>251335</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4214,13 +4232,13 @@
         <v>681835</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="H26" s="7">
         <v>989</v>
@@ -4229,13 +4247,13 @@
         <v>794692</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>304</v>
+        <v>143</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>176</v>
+        <v>308</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="M26" s="7">
         <v>1652</v>
@@ -4244,13 +4262,13 @@
         <v>1476527</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4336,13 @@
         <v>302882</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
@@ -4333,13 +4351,13 @@
         <v>145198</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="M28" s="7">
         <v>355</v>
@@ -4348,13 +4366,13 @@
         <v>448080</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>214</v>
+        <v>319</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4387,13 @@
         <v>3078032</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H29" s="7">
         <v>5192</v>
@@ -4384,28 +4402,28 @@
         <v>3652459</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M29" s="7">
         <v>8366</v>
       </c>
       <c r="N29" s="7">
-        <v>6730491</v>
+        <v>6730492</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>222</v>
+        <v>328</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,7 +4465,7 @@
         <v>8721</v>
       </c>
       <c r="N30" s="7">
-        <v>7178571</v>
+        <v>7178572</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
@@ -4461,7 +4479,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P36B13_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{603C3E7B-019B-4136-93E0-1DFF770CFF97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1924A307-E9F8-45E0-A473-B179AFD38882}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{09E8FEB6-B037-4729-BA27-73181C9C8AC9}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{861DD595-DA9F-41BF-8C57-5F8CC4155696}"/>
   </bookViews>
   <sheets>
     <sheet name="2016" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="327">
   <si>
     <t>Población que consume comida rápida al menos 3 veces por semana en 2016 (Tasa respuesta: 99,44%)</t>
   </si>
@@ -594,16 +594,16 @@
     <t>0,58%</t>
   </si>
   <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -612,424 +612,412 @@
     <t>99,42%</t>
   </si>
   <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
   </si>
   <si>
     <t>1,36%</t>
   </si>
   <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,05%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
   </si>
   <si>
     <t>98,64%</t>
   </si>
   <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,52%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,35%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>98,38%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
   </si>
   <si>
     <t>99,03%</t>
   </si>
   <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>89,91%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>85,25%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>91,04%</t>
-  </si>
-  <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>85,73%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>62,22%</t>
+  </si>
+  <si>
+    <t>30,18%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>75,14%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>13,81%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1429,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13D9BEF0-71B2-4B5D-97AE-AE2B829F153F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F57660F4-7643-4A0B-9DAC-0D473A2C3E47}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2573,7 +2561,7 @@
         <v>1123</v>
       </c>
       <c r="N23" s="7">
-        <v>1234169</v>
+        <v>1234170</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>142</v>
@@ -2624,7 +2612,7 @@
         <v>1206</v>
       </c>
       <c r="N24" s="7">
-        <v>1323736</v>
+        <v>1323737</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -2853,7 +2841,7 @@
         <v>2808</v>
       </c>
       <c r="D29" s="7">
-        <v>2954830</v>
+        <v>2954829</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>172</v>
@@ -2904,7 +2892,7 @@
         <v>3213</v>
       </c>
       <c r="D30" s="7">
-        <v>3373766</v>
+        <v>3373765</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -2972,7 +2960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74024FD0-1256-49A8-A968-1DEA7DCBDE6D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B664D16-9117-4469-8C7B-71D238DED359}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3108,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>185</v>
@@ -3123,7 +3111,7 @@
         <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>1326</v>
+        <v>1566</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>187</v>
@@ -3144,7 +3132,7 @@
         <v>331</v>
       </c>
       <c r="D5" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>189</v>
@@ -3159,7 +3147,7 @@
         <v>537</v>
       </c>
       <c r="I5" s="7">
-        <v>270077</v>
+        <v>288069</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>191</v>
@@ -3174,7 +3162,7 @@
         <v>868</v>
       </c>
       <c r="N5" s="7">
-        <v>530374</v>
+        <v>599511</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>193</v>
@@ -3195,7 +3183,7 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3210,7 +3198,7 @@
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3225,7 +3213,7 @@
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3248,7 +3236,7 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>19391</v>
+        <v>20123</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>195</v>
@@ -3263,7 +3251,7 @@
         <v>15</v>
       </c>
       <c r="I7" s="7">
-        <v>13222</v>
+        <v>12395</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>198</v>
@@ -3278,7 +3266,7 @@
         <v>26</v>
       </c>
       <c r="N7" s="7">
-        <v>32613</v>
+        <v>32519</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>201</v>
@@ -3299,7 +3287,7 @@
         <v>371</v>
       </c>
       <c r="D8" s="7">
-        <v>499906</v>
+        <v>498267</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>204</v>
@@ -3314,7 +3302,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="7">
-        <v>539848</v>
+        <v>501186</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>207</v>
@@ -3329,7 +3317,7 @@
         <v>1071</v>
       </c>
       <c r="N8" s="7">
-        <v>1039755</v>
+        <v>999452</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>210</v>
@@ -3350,7 +3338,7 @@
         <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3365,7 +3353,7 @@
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553070</v>
+        <v>513581</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3380,7 +3368,7 @@
         <v>1097</v>
       </c>
       <c r="N9" s="7">
-        <v>1072368</v>
+        <v>1031971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3403,7 +3391,7 @@
         <v>12</v>
       </c>
       <c r="D10" s="7">
-        <v>13528</v>
+        <v>13403</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>213</v>
@@ -3418,13 +3406,13 @@
         <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>14595</v>
+        <v>13918</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>217</v>
@@ -3433,7 +3421,7 @@
         <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>28123</v>
+        <v>27320</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>218</v>
@@ -3454,7 +3442,7 @@
         <v>343</v>
       </c>
       <c r="D11" s="7">
-        <v>304399</v>
+        <v>298501</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>221</v>
@@ -3469,22 +3457,22 @@
         <v>511</v>
       </c>
       <c r="I11" s="7">
-        <v>352278</v>
+        <v>329220</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="M11" s="7">
         <v>854</v>
       </c>
       <c r="N11" s="7">
-        <v>656677</v>
+        <v>627722</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>226</v>
@@ -3505,7 +3493,7 @@
         <v>355</v>
       </c>
       <c r="D12" s="7">
-        <v>317927</v>
+        <v>311904</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3520,7 +3508,7 @@
         <v>528</v>
       </c>
       <c r="I12" s="7">
-        <v>366873</v>
+        <v>343138</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3535,7 +3523,7 @@
         <v>883</v>
       </c>
       <c r="N12" s="7">
-        <v>684800</v>
+        <v>655042</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3558,7 +3546,7 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>16133</v>
+        <v>15821</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>229</v>
@@ -3573,7 +3561,7 @@
         <v>9</v>
       </c>
       <c r="I13" s="7">
-        <v>6188</v>
+        <v>5852</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>232</v>
@@ -3588,7 +3576,7 @@
         <v>21</v>
       </c>
       <c r="N13" s="7">
-        <v>22321</v>
+        <v>21673</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>235</v>
@@ -3609,7 +3597,7 @@
         <v>280</v>
       </c>
       <c r="D14" s="7">
-        <v>306107</v>
+        <v>296736</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>238</v>
@@ -3624,7 +3612,7 @@
         <v>590</v>
       </c>
       <c r="I14" s="7">
-        <v>422368</v>
+        <v>469866</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>241</v>
@@ -3639,7 +3627,7 @@
         <v>870</v>
       </c>
       <c r="N14" s="7">
-        <v>728475</v>
+        <v>766601</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>244</v>
@@ -3660,7 +3648,7 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3675,7 +3663,7 @@
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3690,7 +3678,7 @@
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3713,7 +3701,7 @@
         <v>5</v>
       </c>
       <c r="D16" s="7">
-        <v>3236</v>
+        <v>2971</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>247</v>
@@ -3728,7 +3716,7 @@
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2056</v>
+        <v>1841</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>250</v>
@@ -3737,22 +3725,22 @@
         <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>9</v>
       </c>
       <c r="N16" s="7">
-        <v>5291</v>
+        <v>4812</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3764,7 +3752,7 @@
         <v>274</v>
       </c>
       <c r="D17" s="7">
-        <v>193512</v>
+        <v>175771</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>255</v>
@@ -3779,28 +3767,28 @@
         <v>486</v>
       </c>
       <c r="I17" s="7">
-        <v>228985</v>
+        <v>206019</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>258</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="M17" s="7">
         <v>760</v>
       </c>
       <c r="N17" s="7">
-        <v>422497</v>
+        <v>381789</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>262</v>
@@ -3815,7 +3803,7 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3830,7 +3818,7 @@
         <v>490</v>
       </c>
       <c r="I18" s="7">
-        <v>231041</v>
+        <v>207860</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3845,7 +3833,7 @@
         <v>769</v>
       </c>
       <c r="N18" s="7">
-        <v>427788</v>
+        <v>386601</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3868,7 +3856,7 @@
         <v>9</v>
       </c>
       <c r="D19" s="7">
-        <v>9681</v>
+        <v>9289</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>263</v>
@@ -3883,31 +3871,31 @@
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1618</v>
+        <v>1406</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>182</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="M19" s="7">
         <v>10</v>
       </c>
       <c r="N19" s="7">
-        <v>11299</v>
+        <v>10694</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,28 +3907,28 @@
         <v>362</v>
       </c>
       <c r="D20" s="7">
-        <v>267542</v>
+        <v>260347</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="H20" s="7">
         <v>459</v>
       </c>
       <c r="I20" s="7">
-        <v>274004</v>
+        <v>255650</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>189</v>
@@ -3949,16 +3937,16 @@
         <v>821</v>
       </c>
       <c r="N20" s="7">
-        <v>541546</v>
+        <v>515998</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3970,7 +3958,7 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -3985,7 +3973,7 @@
         <v>460</v>
       </c>
       <c r="I21" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>30</v>
@@ -4000,7 +3988,7 @@
         <v>831</v>
       </c>
       <c r="N21" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -4023,46 +4011,46 @@
         <v>49</v>
       </c>
       <c r="D22" s="7">
-        <v>63319</v>
+        <v>64822</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="H22" s="7">
         <v>38</v>
       </c>
       <c r="I22" s="7">
-        <v>32451</v>
+        <v>30849</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="M22" s="7">
         <v>87</v>
       </c>
       <c r="N22" s="7">
-        <v>95770</v>
+        <v>95671</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,46 +4062,46 @@
         <v>550</v>
       </c>
       <c r="D23" s="7">
-        <v>564435</v>
+        <v>559457</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="H23" s="7">
         <v>920</v>
       </c>
       <c r="I23" s="7">
-        <v>770207</v>
+        <v>816966</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="M23" s="7">
         <v>1470</v>
       </c>
       <c r="N23" s="7">
-        <v>1334642</v>
+        <v>1376424</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4125,7 +4113,7 @@
         <v>599</v>
       </c>
       <c r="D24" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -4140,7 +4128,7 @@
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>802658</v>
+        <v>847815</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>30</v>
@@ -4155,7 +4143,7 @@
         <v>1557</v>
       </c>
       <c r="N24" s="7">
-        <v>1430412</v>
+        <v>1472095</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -4178,46 +4166,46 @@
         <v>99</v>
       </c>
       <c r="D25" s="7">
-        <v>177593</v>
+        <v>350833</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H25" s="7">
         <v>73</v>
       </c>
       <c r="I25" s="7">
-        <v>73742</v>
+        <v>58491</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="M25" s="7">
         <v>172</v>
       </c>
       <c r="N25" s="7">
-        <v>251335</v>
+        <v>409324</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,46 +4217,46 @@
         <v>663</v>
       </c>
       <c r="D26" s="7">
-        <v>681835</v>
+        <v>577887</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H26" s="7">
         <v>989</v>
       </c>
       <c r="I26" s="7">
-        <v>794692</v>
+        <v>659240</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>1652</v>
       </c>
       <c r="N26" s="7">
-        <v>1476527</v>
+        <v>1237128</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4280,7 +4268,7 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>30</v>
@@ -4295,7 +4283,7 @@
         <v>1062</v>
       </c>
       <c r="I27" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>30</v>
@@ -4310,7 +4298,7 @@
         <v>1824</v>
       </c>
       <c r="N27" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>30</v>
@@ -4333,46 +4321,46 @@
         <v>197</v>
       </c>
       <c r="D28" s="7">
-        <v>302882</v>
+        <v>477261</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H28" s="7">
         <v>158</v>
       </c>
       <c r="I28" s="7">
-        <v>145198</v>
+        <v>126318</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M28" s="7">
         <v>355</v>
       </c>
       <c r="N28" s="7">
-        <v>448080</v>
+        <v>603580</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,46 +4372,46 @@
         <v>3174</v>
       </c>
       <c r="D29" s="7">
-        <v>3078032</v>
+        <v>2978410</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="H29" s="7">
         <v>5192</v>
       </c>
       <c r="I29" s="7">
-        <v>3652459</v>
+        <v>3526216</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="M29" s="7">
         <v>8366</v>
       </c>
       <c r="N29" s="7">
-        <v>6730492</v>
+        <v>6504624</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>328</v>
+        <v>143</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4435,7 +4423,7 @@
         <v>3371</v>
       </c>
       <c r="D30" s="7">
-        <v>3380914</v>
+        <v>3455671</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>30</v>
@@ -4450,7 +4438,7 @@
         <v>5350</v>
       </c>
       <c r="I30" s="7">
-        <v>3797657</v>
+        <v>3652534</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>30</v>
@@ -4465,7 +4453,7 @@
         <v>8721</v>
       </c>
       <c r="N30" s="7">
-        <v>7178572</v>
+        <v>7108204</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>30</v>
